--- a/simple/member.xlsx
+++ b/simple/member.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptii2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptii2\Desktop\Backend-teachingSchedule\simple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C276F9-685D-423F-B9CE-5B6635735AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B471660-3994-4563-B760-48BD558F99A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{60F67878-467A-407F-B527-73A002A0DEE4}"/>
+    <workbookView xWindow="12504" yWindow="2064" windowWidth="17280" windowHeight="8880" xr2:uid="{60F67878-467A-407F-B527-73A002A0DEE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>yatika.p@ku.th</t>
   </si>
   <si>
-    <t>nitharee.p@ku.th</t>
-  </si>
-  <si>
     <t>kanonkphorn.p@gmail.com</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>nthr.ph.pad@gmail.com</t>
   </si>
   <si>
-    <t>nitha</t>
-  </si>
-  <si>
     <t>FFF</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>frame</t>
+  </si>
+  <si>
+    <t>bihindshadow@gmail.com</t>
+  </si>
+  <si>
+    <t>OAT</t>
   </si>
 </sst>
 </file>
@@ -453,10 +453,10 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
   </cols>
@@ -466,29 +466,29 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="15.6">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -507,34 +507,34 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
-        <v>2</v>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{0C66E5C8-4023-42AC-B6F9-1F0565D66F18}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{1E2FA788-390B-4A47-B366-70717D519608}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{B3356D9D-B6DD-4E74-B08E-D707034B9D12}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{76C314C7-C993-421F-90B4-41AE1D533EA0}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{CC0BF440-CEAF-4F55-BDE4-7A4F2BB5D5BE}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{FAF98772-FB09-4F8B-AA0C-0915B5EC2FEF}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{B3356D9D-B6DD-4E74-B08E-D707034B9D12}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{76C314C7-C993-421F-90B4-41AE1D533EA0}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{CC0BF440-CEAF-4F55-BDE4-7A4F2BB5D5BE}"/>
+    <hyperlink ref="A2" r:id="rId5" xr:uid="{FAF98772-FB09-4F8B-AA0C-0915B5EC2FEF}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{E0931398-8D61-413B-BDA2-0349DC10EF71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
